--- a/data/pca/factorExposure/factorExposure_2009-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003950482424727442</v>
+        <v>0.01701601061038199</v>
       </c>
       <c r="C2">
-        <v>-0.009895870858188315</v>
+        <v>0.001071989456862951</v>
       </c>
       <c r="D2">
-        <v>-0.002522862624491963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.006978047348876895</v>
+      </c>
+      <c r="E2">
+        <v>-0.000120125122971514</v>
+      </c>
+      <c r="F2">
+        <v>0.01115719282828308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03111261829163856</v>
+        <v>0.09364356679865014</v>
       </c>
       <c r="C4">
-        <v>-0.1190386479725699</v>
+        <v>0.01514714863108458</v>
       </c>
       <c r="D4">
-        <v>0.02512022355584462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08434629831747779</v>
+      </c>
+      <c r="E4">
+        <v>0.02832664492084897</v>
+      </c>
+      <c r="F4">
+        <v>-0.03063526579436747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03990542794950989</v>
+        <v>0.1569796996961702</v>
       </c>
       <c r="C6">
-        <v>-0.1142729952844734</v>
+        <v>0.02517564183627292</v>
       </c>
       <c r="D6">
-        <v>-0.03390256824465986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02134316417925947</v>
+      </c>
+      <c r="E6">
+        <v>0.009464075552511367</v>
+      </c>
+      <c r="F6">
+        <v>-0.04601613232696348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01193906315172923</v>
+        <v>0.06260951062225194</v>
       </c>
       <c r="C7">
-        <v>-0.084640145362873</v>
+        <v>-0.001733124033115276</v>
       </c>
       <c r="D7">
-        <v>-0.004739133348526698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05349106621518519</v>
+      </c>
+      <c r="E7">
+        <v>0.01005332568457934</v>
+      </c>
+      <c r="F7">
+        <v>-0.04801497296281172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0004205167989027033</v>
+        <v>0.05705295580922336</v>
       </c>
       <c r="C8">
-        <v>-0.07322664079620739</v>
+        <v>-0.01379532205226702</v>
       </c>
       <c r="D8">
-        <v>-0.03322807780580535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03455184892590247</v>
+      </c>
+      <c r="E8">
+        <v>0.01773122754058568</v>
+      </c>
+      <c r="F8">
+        <v>0.02761765868808804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0259123072757456</v>
+        <v>0.07113688022501112</v>
       </c>
       <c r="C9">
-        <v>-0.09799284679395687</v>
+        <v>0.01076825491637761</v>
       </c>
       <c r="D9">
-        <v>0.03061784648542169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08654199167653717</v>
+      </c>
+      <c r="E9">
+        <v>0.02305634957936659</v>
+      </c>
+      <c r="F9">
+        <v>-0.0473318238278839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01276943728017657</v>
+        <v>0.09583256538140612</v>
       </c>
       <c r="C10">
-        <v>-0.02515049168560256</v>
+        <v>0.02095319682276574</v>
       </c>
       <c r="D10">
-        <v>-0.1205959696698164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1716984280251016</v>
+      </c>
+      <c r="E10">
+        <v>-0.03626309957369577</v>
+      </c>
+      <c r="F10">
+        <v>0.05410186073036707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03086378050559501</v>
+        <v>0.08787954190403401</v>
       </c>
       <c r="C11">
-        <v>-0.1032627015987235</v>
+        <v>0.01031417380378845</v>
       </c>
       <c r="D11">
-        <v>0.03283378878789312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1156874331842398</v>
+      </c>
+      <c r="E11">
+        <v>0.04562000783813311</v>
+      </c>
+      <c r="F11">
+        <v>-0.02179755194428052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02859871236620886</v>
+        <v>0.09212784885783958</v>
       </c>
       <c r="C12">
-        <v>-0.1146108592665746</v>
+        <v>0.007453068949650863</v>
       </c>
       <c r="D12">
-        <v>0.02961213980046436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.131353448262573</v>
+      </c>
+      <c r="E12">
+        <v>0.04739974221956867</v>
+      </c>
+      <c r="F12">
+        <v>-0.0260492127494005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01011454289785576</v>
+        <v>0.04170422532755273</v>
       </c>
       <c r="C13">
-        <v>-0.04367276098911103</v>
+        <v>0.002866540808802792</v>
       </c>
       <c r="D13">
-        <v>0.02028212814342381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05229914136570937</v>
+      </c>
+      <c r="E13">
+        <v>-0.007974506435540936</v>
+      </c>
+      <c r="F13">
+        <v>-0.002748003096300417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01623118874393591</v>
+        <v>0.02278964046137599</v>
       </c>
       <c r="C14">
-        <v>-0.02233739239887549</v>
+        <v>0.0137189793057645</v>
       </c>
       <c r="D14">
-        <v>-0.004505251086547435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03302772525982722</v>
+      </c>
+      <c r="E14">
+        <v>0.01719443791991937</v>
+      </c>
+      <c r="F14">
+        <v>-0.01417122013141609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01091898900869983</v>
+        <v>0.03287872461487024</v>
       </c>
       <c r="C15">
-        <v>-0.027564167083125</v>
+        <v>0.004713038166463396</v>
       </c>
       <c r="D15">
-        <v>0.01012841057000784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04533933743748675</v>
+      </c>
+      <c r="E15">
+        <v>0.00629907005183309</v>
+      </c>
+      <c r="F15">
+        <v>-0.02265011189941805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02039973525389771</v>
+        <v>0.07410557058946284</v>
       </c>
       <c r="C16">
-        <v>-0.1087794140768155</v>
+        <v>0.001446706729382111</v>
       </c>
       <c r="D16">
-        <v>0.01198828026128559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1250612384459309</v>
+      </c>
+      <c r="E16">
+        <v>0.06143653309072558</v>
+      </c>
+      <c r="F16">
+        <v>-0.02459591580185632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03166367311784664</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003506358161791533</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01975990720775458</v>
+      </c>
+      <c r="E18">
+        <v>-0.007313131985348688</v>
+      </c>
+      <c r="F18">
+        <v>0.003480593417789749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01321374776850567</v>
+        <v>0.06098083013082226</v>
       </c>
       <c r="C20">
-        <v>-0.06608998579781097</v>
+        <v>1.843119683769455e-05</v>
       </c>
       <c r="D20">
-        <v>-0.004958574460567674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07733070926075854</v>
+      </c>
+      <c r="E20">
+        <v>0.05549053127867763</v>
+      </c>
+      <c r="F20">
+        <v>-0.02319247014078045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01363717811371346</v>
+        <v>0.04035608262526496</v>
       </c>
       <c r="C21">
-        <v>-0.0244691394425424</v>
+        <v>0.006303178182894488</v>
       </c>
       <c r="D21">
-        <v>-0.0002864097235306189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03733552067010455</v>
+      </c>
+      <c r="E21">
+        <v>-0.005625748803070212</v>
+      </c>
+      <c r="F21">
+        <v>0.02359728471954448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.005539254657014832</v>
+        <v>0.04368973649408792</v>
       </c>
       <c r="C22">
-        <v>-0.02912968246562806</v>
+        <v>0.0006928330505065921</v>
       </c>
       <c r="D22">
-        <v>-0.03761184965624163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003610544580640818</v>
+      </c>
+      <c r="E22">
+        <v>0.02943520179595165</v>
+      </c>
+      <c r="F22">
+        <v>0.03543797481908778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.005526507803347215</v>
+        <v>0.04367530166307266</v>
       </c>
       <c r="C23">
-        <v>-0.02906609464219972</v>
+        <v>0.0006885263118560003</v>
       </c>
       <c r="D23">
-        <v>-0.03769756421640663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003615404803322097</v>
+      </c>
+      <c r="E23">
+        <v>0.0296367735049276</v>
+      </c>
+      <c r="F23">
+        <v>0.03540107664335065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02017236656099905</v>
+        <v>0.0801886498218622</v>
       </c>
       <c r="C24">
-        <v>-0.1102643610562358</v>
+        <v>0.001899991291594874</v>
       </c>
       <c r="D24">
-        <v>0.02678859351831407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1203574865310596</v>
+      </c>
+      <c r="E24">
+        <v>0.04886461989312393</v>
+      </c>
+      <c r="F24">
+        <v>-0.02616718017148512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02600876736708152</v>
+        <v>0.08520845441286949</v>
       </c>
       <c r="C25">
-        <v>-0.1114662698703051</v>
+        <v>0.004202007130676726</v>
       </c>
       <c r="D25">
-        <v>0.02145734840674911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1087462087133203</v>
+      </c>
+      <c r="E25">
+        <v>0.03220633964264406</v>
+      </c>
+      <c r="F25">
+        <v>-0.02687706908646227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02488898778209285</v>
+        <v>0.05792858988925525</v>
       </c>
       <c r="C26">
-        <v>-0.04948720948081537</v>
+        <v>0.01429441967974632</v>
       </c>
       <c r="D26">
-        <v>-0.01758293029288728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03952205607890563</v>
+      </c>
+      <c r="E26">
+        <v>0.02741506496665943</v>
+      </c>
+      <c r="F26">
+        <v>0.009209093950072272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.007827178730018786</v>
+        <v>0.1403193972074544</v>
       </c>
       <c r="C28">
-        <v>-0.03609869285660808</v>
+        <v>0.02020575921281717</v>
       </c>
       <c r="D28">
-        <v>-0.1889414493836957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2615905643849627</v>
+      </c>
+      <c r="E28">
+        <v>-0.06719624789973917</v>
+      </c>
+      <c r="F28">
+        <v>-0.009985039997776002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01298427319064143</v>
+        <v>0.027652919890982</v>
       </c>
       <c r="C29">
-        <v>-0.02761406801599472</v>
+        <v>0.008092855932262222</v>
       </c>
       <c r="D29">
-        <v>-0.006172272545089117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03199702199268024</v>
+      </c>
+      <c r="E29">
+        <v>0.01124994418918</v>
+      </c>
+      <c r="F29">
+        <v>0.0104164108014219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0167815585995671</v>
+        <v>0.06128121871865411</v>
       </c>
       <c r="C30">
-        <v>-0.1306171404486623</v>
+        <v>0.003107271427772809</v>
       </c>
       <c r="D30">
-        <v>0.01949033462488537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0890943137528173</v>
+      </c>
+      <c r="E30">
+        <v>0.01929545735724678</v>
+      </c>
+      <c r="F30">
+        <v>-0.0837919006976921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02200681424765206</v>
+        <v>0.04998973102204147</v>
       </c>
       <c r="C31">
-        <v>-0.03579289235382743</v>
+        <v>0.01510546416917251</v>
       </c>
       <c r="D31">
-        <v>-0.001537566449659182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02511541493164056</v>
+      </c>
+      <c r="E31">
+        <v>0.02749360683429308</v>
+      </c>
+      <c r="F31">
+        <v>0.002378333890845328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008829692941969754</v>
+        <v>0.05025302702393485</v>
       </c>
       <c r="C32">
-        <v>-0.06099312142176336</v>
+        <v>-0.001702344580901126</v>
       </c>
       <c r="D32">
-        <v>-0.02875504885074991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03572779572333295</v>
+      </c>
+      <c r="E32">
+        <v>0.03049872415239297</v>
+      </c>
+      <c r="F32">
+        <v>-0.003087278401404791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02335933965862618</v>
+        <v>0.08937409690772209</v>
       </c>
       <c r="C33">
-        <v>-0.1137592640096696</v>
+        <v>0.007494522475590237</v>
       </c>
       <c r="D33">
-        <v>0.02407419368335697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0992843045365612</v>
+      </c>
+      <c r="E33">
+        <v>0.04399922955735459</v>
+      </c>
+      <c r="F33">
+        <v>-0.0356089746161229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0282965436411277</v>
+        <v>0.06847100305277232</v>
       </c>
       <c r="C34">
-        <v>-0.09352733800244536</v>
+        <v>0.01053070138834914</v>
       </c>
       <c r="D34">
-        <v>0.01265254054246148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1066544295540215</v>
+      </c>
+      <c r="E34">
+        <v>0.0344212017761522</v>
+      </c>
+      <c r="F34">
+        <v>-0.03406135470776485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003970767708270936</v>
+        <v>0.02421151116453753</v>
       </c>
       <c r="C35">
-        <v>-0.0148226061383037</v>
+        <v>0.002368738165773422</v>
       </c>
       <c r="D35">
-        <v>0.001879063406134593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01181074519896772</v>
+      </c>
+      <c r="E35">
+        <v>0.01167273551055201</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008520496645729947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01122399484335994</v>
+        <v>0.0278021887809143</v>
       </c>
       <c r="C36">
-        <v>-0.02762237105512151</v>
+        <v>0.006993678495440291</v>
       </c>
       <c r="D36">
-        <v>0.006843782179731019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0388439971952991</v>
+      </c>
+      <c r="E36">
+        <v>0.01572221189916409</v>
+      </c>
+      <c r="F36">
+        <v>-0.01498247007911874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000367350991570803</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-4.754071711751933e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0005077785343151397</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004756004732344398</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006796636351270495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0006684232723199552</v>
+        <v>0.001566057791287721</v>
       </c>
       <c r="C38">
-        <v>-0.00444290314716079</v>
+        <v>0.000262016904103239</v>
       </c>
       <c r="D38">
-        <v>-0.002847491101175383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0001373028516481682</v>
+      </c>
+      <c r="E38">
+        <v>0.0005615645597587265</v>
+      </c>
+      <c r="F38">
+        <v>0.0008399473025742197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04417460994488592</v>
+        <v>0.1055682690882611</v>
       </c>
       <c r="C39">
-        <v>-0.1649933062564924</v>
+        <v>0.01548911112455571</v>
       </c>
       <c r="D39">
-        <v>0.04625612357488975</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1538094118011063</v>
+      </c>
+      <c r="E39">
+        <v>0.05904280508665419</v>
+      </c>
+      <c r="F39">
+        <v>-0.02895630274255717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01161175963582391</v>
+        <v>0.04103995691796795</v>
       </c>
       <c r="C40">
-        <v>-0.01411647412878499</v>
+        <v>0.006651698325786593</v>
       </c>
       <c r="D40">
-        <v>-0.01045271918229607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03272652706443663</v>
+      </c>
+      <c r="E40">
+        <v>0.003570054876541411</v>
+      </c>
+      <c r="F40">
+        <v>0.01543014856009911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01165683735468162</v>
+        <v>0.02788130685290223</v>
       </c>
       <c r="C41">
-        <v>-0.01934400875032389</v>
+        <v>0.00671276047387276</v>
       </c>
       <c r="D41">
-        <v>-0.01569337173470433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01029419180393417</v>
+      </c>
+      <c r="E41">
+        <v>0.01235227847345433</v>
+      </c>
+      <c r="F41">
+        <v>0.006658296633003425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01351105283163563</v>
+        <v>0.04079918754342902</v>
       </c>
       <c r="C43">
-        <v>-0.02770269054955116</v>
+        <v>0.006743162433856866</v>
       </c>
       <c r="D43">
-        <v>-0.01052167121939773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01981711315171472</v>
+      </c>
+      <c r="E43">
+        <v>0.02470515397648819</v>
+      </c>
+      <c r="F43">
+        <v>0.01277312640951071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03349970406059027</v>
+        <v>0.08041905009271227</v>
       </c>
       <c r="C44">
-        <v>-0.1296237608850575</v>
+        <v>0.01979127880825863</v>
       </c>
       <c r="D44">
-        <v>-0.002463222832911009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0980606703583797</v>
+      </c>
+      <c r="E44">
+        <v>0.06592321348909737</v>
+      </c>
+      <c r="F44">
+        <v>-0.1569136873443795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005602583933247226</v>
+        <v>0.02338242520851859</v>
       </c>
       <c r="C46">
-        <v>-0.006314721248853342</v>
+        <v>0.003434489728516799</v>
       </c>
       <c r="D46">
-        <v>-0.01937073924769671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01317565640829728</v>
+      </c>
+      <c r="E46">
+        <v>0.02239504356100597</v>
+      </c>
+      <c r="F46">
+        <v>0.00516532603110176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0112122598467632</v>
+        <v>0.05131061785569547</v>
       </c>
       <c r="C47">
-        <v>-0.03237080272943139</v>
+        <v>0.003304386889880455</v>
       </c>
       <c r="D47">
-        <v>-0.02821933368959516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01406110657443698</v>
+      </c>
+      <c r="E47">
+        <v>0.02352285876048849</v>
+      </c>
+      <c r="F47">
+        <v>0.03369453625920946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01251515510722271</v>
+        <v>0.04972945210526084</v>
       </c>
       <c r="C48">
-        <v>-0.04833042948818701</v>
+        <v>0.002158410068539838</v>
       </c>
       <c r="D48">
-        <v>0.01592056314277016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04981487673150992</v>
+      </c>
+      <c r="E48">
+        <v>-0.006535042903913998</v>
+      </c>
+      <c r="F48">
+        <v>-0.009674297557494157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04115786231752777</v>
+        <v>0.1997124931214811</v>
       </c>
       <c r="C49">
-        <v>-0.2199380393018983</v>
+        <v>0.01846014113700394</v>
       </c>
       <c r="D49">
-        <v>-0.0607496936406485</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007229626717707134</v>
+      </c>
+      <c r="E49">
+        <v>0.03154227523592408</v>
+      </c>
+      <c r="F49">
+        <v>-0.03904917027370101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01881475847862794</v>
+        <v>0.05078029636264074</v>
       </c>
       <c r="C50">
-        <v>-0.03999883193692852</v>
+        <v>0.01112550905729629</v>
       </c>
       <c r="D50">
-        <v>-0.008336702478300425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02358318872261925</v>
+      </c>
+      <c r="E50">
+        <v>0.02930610010116472</v>
+      </c>
+      <c r="F50">
+        <v>-0.009020296176186049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004181098855973043</v>
+        <v>0.0006739882662922049</v>
       </c>
       <c r="C51">
-        <v>-0.001507100146320008</v>
+        <v>0.0001820745192124099</v>
       </c>
       <c r="D51">
-        <v>-0.00126423032178676</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>7.708270957859573e-05</v>
+      </c>
+      <c r="E51">
+        <v>0.0002853832488534817</v>
+      </c>
+      <c r="F51">
+        <v>-0.002880398981030331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03286175160991071</v>
+        <v>0.1463766379933488</v>
       </c>
       <c r="C52">
-        <v>-0.1509502276732473</v>
+        <v>0.01537651635793072</v>
       </c>
       <c r="D52">
-        <v>0.01916192635541646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04456124069550593</v>
+      </c>
+      <c r="E52">
+        <v>0.01999009069344617</v>
+      </c>
+      <c r="F52">
+        <v>-0.040672109051041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03423943251701515</v>
+        <v>0.1724514002020946</v>
       </c>
       <c r="C53">
-        <v>-0.1740462985211916</v>
+        <v>0.0186180280800571</v>
       </c>
       <c r="D53">
-        <v>-0.01362119245276997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005867316855082841</v>
+      </c>
+      <c r="E53">
+        <v>0.0312360168630033</v>
+      </c>
+      <c r="F53">
+        <v>-0.07207254115160051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01628992260470037</v>
+        <v>0.02217366273998325</v>
       </c>
       <c r="C54">
-        <v>-0.03922213071382644</v>
+        <v>0.01231247981974248</v>
       </c>
       <c r="D54">
-        <v>-0.006169277159094827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0343079291722343</v>
+      </c>
+      <c r="E54">
+        <v>0.01871891066279314</v>
+      </c>
+      <c r="F54">
+        <v>0.003358442569401956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02611261137627835</v>
+        <v>0.1139065027979386</v>
       </c>
       <c r="C55">
-        <v>-0.08743874554915991</v>
+        <v>0.01623736360188055</v>
       </c>
       <c r="D55">
-        <v>-0.0005576076198385616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009688877119430383</v>
+      </c>
+      <c r="E55">
+        <v>0.02784392954000486</v>
+      </c>
+      <c r="F55">
+        <v>-0.04638324696692131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03509492390198989</v>
+        <v>0.1771554135299894</v>
       </c>
       <c r="C56">
-        <v>-0.1606159427316729</v>
+        <v>0.01609714339569358</v>
       </c>
       <c r="D56">
-        <v>-0.02279266939388894</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0007402282272972408</v>
+      </c>
+      <c r="E56">
+        <v>0.03537811079183204</v>
+      </c>
+      <c r="F56">
+        <v>-0.05035685682937845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01302944328455649</v>
+        <v>0.04637866671219902</v>
       </c>
       <c r="C58">
-        <v>-0.04936576290622977</v>
+        <v>0.0004648969573731493</v>
       </c>
       <c r="D58">
-        <v>0.01225703603389086</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06747676878865268</v>
+      </c>
+      <c r="E58">
+        <v>0.02760894024640316</v>
+      </c>
+      <c r="F58">
+        <v>0.03604669665906016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.0165772331227265</v>
+        <v>0.1676288572070619</v>
       </c>
       <c r="C59">
-        <v>-0.09040685822756982</v>
+        <v>0.0207660418257762</v>
       </c>
       <c r="D59">
-        <v>-0.1961789959291703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2172385748500806</v>
+      </c>
+      <c r="E59">
+        <v>-0.04501892426527725</v>
+      </c>
+      <c r="F59">
+        <v>0.0339504748982748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.03135901588559344</v>
+        <v>0.2313037330066413</v>
       </c>
       <c r="C60">
-        <v>-0.2774661098243431</v>
+        <v>-0.003064121471154792</v>
       </c>
       <c r="D60">
-        <v>-0.001931043499026701</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04220195293607115</v>
+      </c>
+      <c r="E60">
+        <v>0.01109797807555863</v>
+      </c>
+      <c r="F60">
+        <v>0.006767145412828347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03147093985579464</v>
+        <v>0.08214791930012884</v>
       </c>
       <c r="C61">
-        <v>-0.1249002967448897</v>
+        <v>0.01151074828536391</v>
       </c>
       <c r="D61">
-        <v>0.01523882421229694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1162939667951719</v>
+      </c>
+      <c r="E61">
+        <v>0.03865064374843886</v>
+      </c>
+      <c r="F61">
+        <v>-0.01170972003103362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03699493996893372</v>
+        <v>0.1705452574690596</v>
       </c>
       <c r="C62">
-        <v>-0.1627499819794046</v>
+        <v>0.01944352974026966</v>
       </c>
       <c r="D62">
-        <v>-0.01752200670047246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006295059823280155</v>
+      </c>
+      <c r="E62">
+        <v>0.03451508174947251</v>
+      </c>
+      <c r="F62">
+        <v>-0.03299380735833585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01213493049217076</v>
+        <v>0.04580114176199786</v>
       </c>
       <c r="C63">
-        <v>-0.05179146230045119</v>
+        <v>0.001816534463473025</v>
       </c>
       <c r="D63">
-        <v>0.01273456263622221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05832952683356038</v>
+      </c>
+      <c r="E63">
+        <v>0.0214062751579531</v>
+      </c>
+      <c r="F63">
+        <v>-0.005929881337185314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02527769720389859</v>
+        <v>0.1106649199055777</v>
       </c>
       <c r="C64">
-        <v>-0.09757089040852411</v>
+        <v>0.010924715330484</v>
       </c>
       <c r="D64">
-        <v>-0.009956527062387251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04274557485591531</v>
+      </c>
+      <c r="E64">
+        <v>0.02401962223000106</v>
+      </c>
+      <c r="F64">
+        <v>-0.02550931485626715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04106338661088701</v>
+        <v>0.1476263634795759</v>
       </c>
       <c r="C65">
-        <v>-0.1081069435473159</v>
+        <v>0.03255432009799512</v>
       </c>
       <c r="D65">
-        <v>-0.02482513736515593</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04146360002495753</v>
+      </c>
+      <c r="E65">
+        <v>0.002882831110249838</v>
+      </c>
+      <c r="F65">
+        <v>-0.03953078280892267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04208797729511229</v>
+        <v>0.1251397701277307</v>
       </c>
       <c r="C66">
-        <v>-0.1915360258864279</v>
+        <v>0.01355539854626987</v>
       </c>
       <c r="D66">
-        <v>0.04351615618488951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1423735121602055</v>
+      </c>
+      <c r="E66">
+        <v>0.06652256200877611</v>
+      </c>
+      <c r="F66">
+        <v>-0.03121179465794345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01488850537036712</v>
+        <v>0.06091022303642046</v>
       </c>
       <c r="C67">
-        <v>-0.07468826037061335</v>
+        <v>0.003092861722565791</v>
       </c>
       <c r="D67">
-        <v>0.008289708498737417</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05510238232342452</v>
+      </c>
+      <c r="E67">
+        <v>0.017193752739972</v>
+      </c>
+      <c r="F67">
+        <v>0.03424078396494305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01779917063479671</v>
+        <v>0.116931255700519</v>
       </c>
       <c r="C68">
-        <v>-0.02426425271325462</v>
+        <v>0.0313863237496731</v>
       </c>
       <c r="D68">
-        <v>-0.1728836532730366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2618502890048439</v>
+      </c>
+      <c r="E68">
+        <v>-0.08681370781879921</v>
+      </c>
+      <c r="F68">
+        <v>-0.00529187699525866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.006495780095991961</v>
+        <v>0.03985075901792592</v>
       </c>
       <c r="C69">
-        <v>-0.03459082308571581</v>
+        <v>0.001322086954464379</v>
       </c>
       <c r="D69">
-        <v>-0.007977800631922582</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007289428817882073</v>
+      </c>
+      <c r="E69">
+        <v>0.02299303571801262</v>
+      </c>
+      <c r="F69">
+        <v>0.0008996566038819239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0003021578467723085</v>
+        <v>0.0659570009431075</v>
       </c>
       <c r="C70">
-        <v>-0.03486228515544095</v>
+        <v>-0.02804236555981923</v>
       </c>
       <c r="D70">
-        <v>0.0004830662999017852</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02453262945404548</v>
+      </c>
+      <c r="E70">
+        <v>-0.04001563199273932</v>
+      </c>
+      <c r="F70">
+        <v>0.1858296556463571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02161044670513253</v>
+        <v>0.1366656853898273</v>
       </c>
       <c r="C71">
-        <v>-0.03086376026228662</v>
+        <v>0.03571160787788594</v>
       </c>
       <c r="D71">
-        <v>-0.1839912040571768</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2737121878397758</v>
+      </c>
+      <c r="E71">
+        <v>-0.09616928163102477</v>
+      </c>
+      <c r="F71">
+        <v>-0.0120758310782947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03804755924273968</v>
+        <v>0.1421494159486477</v>
       </c>
       <c r="C72">
-        <v>-0.1201876854013227</v>
+        <v>0.02585031981629727</v>
       </c>
       <c r="D72">
-        <v>-0.03815944044919282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001193598835479746</v>
+      </c>
+      <c r="E72">
+        <v>0.03827622265235259</v>
+      </c>
+      <c r="F72">
+        <v>-0.03436593558046718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03637726794537727</v>
+        <v>0.2005286301083675</v>
       </c>
       <c r="C73">
-        <v>-0.2152634417499227</v>
+        <v>0.01205833154985319</v>
       </c>
       <c r="D73">
-        <v>-0.05268758899960339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01836960642578347</v>
+      </c>
+      <c r="E73">
+        <v>0.06490195841608845</v>
+      </c>
+      <c r="F73">
+        <v>-0.03844169519298181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02226334621487785</v>
+        <v>0.09494677169788934</v>
       </c>
       <c r="C74">
-        <v>-0.1097844679772085</v>
+        <v>0.01305877263436643</v>
       </c>
       <c r="D74">
-        <v>-0.02877763016265485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01726604624061913</v>
+      </c>
+      <c r="E74">
+        <v>0.0440855255708584</v>
+      </c>
+      <c r="F74">
+        <v>-0.05590915076516132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04355012982108492</v>
+        <v>0.1284324724092023</v>
       </c>
       <c r="C75">
-        <v>-0.1346693248504661</v>
+        <v>0.02754688578241371</v>
       </c>
       <c r="D75">
-        <v>-0.03223488463235415</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03000910391625881</v>
+      </c>
+      <c r="E75">
+        <v>0.05791384455708334</v>
+      </c>
+      <c r="F75">
+        <v>-0.01762265533431743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0002324939638738754</v>
+        <v>0.0005320563729794439</v>
       </c>
       <c r="C76">
-        <v>-0.001757429451993623</v>
+        <v>0.0001597228549070316</v>
       </c>
       <c r="D76">
-        <v>-0.001775984228629105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0003985524307877775</v>
+      </c>
+      <c r="E76">
+        <v>0.0001696976945801377</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006209467975996429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02570863296104294</v>
+        <v>0.08548357590713562</v>
       </c>
       <c r="C77">
-        <v>-0.0989479825362161</v>
+        <v>0.007754212174826189</v>
       </c>
       <c r="D77">
-        <v>0.04535750168062465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1144003585544292</v>
+      </c>
+      <c r="E77">
+        <v>0.03925100392883556</v>
+      </c>
+      <c r="F77">
+        <v>-0.03288920625114879</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05569051293865461</v>
+        <v>0.09957245508936355</v>
       </c>
       <c r="C78">
-        <v>-0.1395625081980997</v>
+        <v>0.03893585129802918</v>
       </c>
       <c r="D78">
-        <v>-0.01535406567862725</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1174656289814828</v>
+      </c>
+      <c r="E78">
+        <v>0.07487872532999564</v>
+      </c>
+      <c r="F78">
+        <v>-0.04526677880509971</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03827953896892042</v>
+        <v>0.1648812791329491</v>
       </c>
       <c r="C79">
-        <v>-0.1448176365922052</v>
+        <v>0.02218445647697919</v>
       </c>
       <c r="D79">
-        <v>-0.02970311797930483</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01504774278535994</v>
+      </c>
+      <c r="E79">
+        <v>0.04634190162782113</v>
+      </c>
+      <c r="F79">
+        <v>-0.01025026748398584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01010263578739643</v>
+        <v>0.08243940210899439</v>
       </c>
       <c r="C80">
-        <v>-0.08472644492692365</v>
+        <v>-0.001054047637603595</v>
       </c>
       <c r="D80">
-        <v>-0.01124320494319711</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05694254968626249</v>
+      </c>
+      <c r="E80">
+        <v>0.03682870357598908</v>
+      </c>
+      <c r="F80">
+        <v>0.02373792557245873</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04563738088004964</v>
+        <v>0.1218430258463803</v>
       </c>
       <c r="C81">
-        <v>-0.1391798783689173</v>
+        <v>0.03155214558677139</v>
       </c>
       <c r="D81">
-        <v>-0.01931564618934747</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01577712304327161</v>
+      </c>
+      <c r="E81">
+        <v>0.05753935916726205</v>
+      </c>
+      <c r="F81">
+        <v>-0.01579598632267643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04016210413487245</v>
+        <v>0.1665842778543519</v>
       </c>
       <c r="C82">
-        <v>-0.1646083909448684</v>
+        <v>0.02399504302536866</v>
       </c>
       <c r="D82">
-        <v>-0.02346851781128895</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003248435586378895</v>
+      </c>
+      <c r="E82">
+        <v>0.02754358276390876</v>
+      </c>
+      <c r="F82">
+        <v>-0.07921823731467692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01800159556291213</v>
+        <v>0.06061992976478622</v>
       </c>
       <c r="C83">
-        <v>-0.07226220907279217</v>
+        <v>0.002807588146896895</v>
       </c>
       <c r="D83">
-        <v>0.0009927358578290986</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05051362125101198</v>
+      </c>
+      <c r="E83">
+        <v>0.004844042877740936</v>
+      </c>
+      <c r="F83">
+        <v>0.03156415836829257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02646445368723442</v>
+        <v>0.05836908343021579</v>
       </c>
       <c r="C84">
-        <v>-0.07511001381390676</v>
+        <v>0.01081086348305028</v>
       </c>
       <c r="D84">
-        <v>0.02800946044030647</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06443422372617014</v>
+      </c>
+      <c r="E84">
+        <v>0.006744118217310685</v>
+      </c>
+      <c r="F84">
+        <v>-0.003693687972567226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03971313708709238</v>
+        <v>0.1368209383891018</v>
       </c>
       <c r="C85">
-        <v>-0.1198133876544723</v>
+        <v>0.0274739078085641</v>
       </c>
       <c r="D85">
-        <v>-0.01608009762892998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01079297557781124</v>
+      </c>
+      <c r="E85">
+        <v>0.03844941172954879</v>
+      </c>
+      <c r="F85">
+        <v>-0.04443224884718976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01176776007803229</v>
+        <v>0.09362825771855811</v>
       </c>
       <c r="C86">
-        <v>-0.08818178362890287</v>
+        <v>-0.006546889545392679</v>
       </c>
       <c r="D86">
-        <v>-0.183923031230666</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0422266590561156</v>
+      </c>
+      <c r="E86">
+        <v>0.2123747569209485</v>
+      </c>
+      <c r="F86">
+        <v>0.9082898565362467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.03962406706337444</v>
+        <v>0.09673301590728027</v>
       </c>
       <c r="C87">
-        <v>-0.1026643310001545</v>
+        <v>0.01932932034983643</v>
       </c>
       <c r="D87">
-        <v>0.05720985876672569</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09685232799197821</v>
+      </c>
+      <c r="E87">
+        <v>-0.0503538993533053</v>
+      </c>
+      <c r="F87">
+        <v>-0.05348722631423929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01418233159629275</v>
+        <v>0.06101155556128979</v>
       </c>
       <c r="C88">
-        <v>-0.06132102660915006</v>
+        <v>0.002131527441214947</v>
       </c>
       <c r="D88">
-        <v>0.002145014261334442</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04934236607365914</v>
+      </c>
+      <c r="E88">
+        <v>0.02445598251293126</v>
+      </c>
+      <c r="F88">
+        <v>-0.01205811683816652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.003254645993557299</v>
+        <v>0.1340136142574574</v>
       </c>
       <c r="C89">
-        <v>-0.04977642252458577</v>
+        <v>0.01314573095160737</v>
       </c>
       <c r="D89">
-        <v>-0.2168443555469284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2509965539659404</v>
+      </c>
+      <c r="E89">
+        <v>-0.09033920465652906</v>
+      </c>
+      <c r="F89">
+        <v>0.008006162750644686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02036497150433204</v>
+        <v>0.150089892163154</v>
       </c>
       <c r="C90">
-        <v>-0.03442495099265793</v>
+        <v>0.03180562826840564</v>
       </c>
       <c r="D90">
-        <v>-0.1928251879365905</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2688842084700575</v>
+      </c>
+      <c r="E90">
+        <v>-0.1114474927721483</v>
+      </c>
+      <c r="F90">
+        <v>0.001655586010951083</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02509095547395563</v>
+        <v>0.1204905657468046</v>
       </c>
       <c r="C91">
-        <v>-0.1002890467202106</v>
+        <v>0.01862911749106253</v>
       </c>
       <c r="D91">
-        <v>-0.02149005788695115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0130276808785891</v>
+      </c>
+      <c r="E91">
+        <v>0.0560463180926783</v>
+      </c>
+      <c r="F91">
+        <v>0.00347001601443654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.006003863505696986</v>
+        <v>0.147463119008663</v>
       </c>
       <c r="C92">
-        <v>-0.04696335866524818</v>
+        <v>0.02343567967702091</v>
       </c>
       <c r="D92">
-        <v>-0.2065070815341128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.291118439054107</v>
+      </c>
+      <c r="E92">
+        <v>-0.09986020271884057</v>
+      </c>
+      <c r="F92">
+        <v>0.013020051213617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01838181822618172</v>
+        <v>0.1519087482073639</v>
       </c>
       <c r="C93">
-        <v>-0.04969091013870604</v>
+        <v>0.02774160328814892</v>
       </c>
       <c r="D93">
-        <v>-0.2178667155561458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2686963858856869</v>
+      </c>
+      <c r="E93">
+        <v>-0.07683747659852655</v>
+      </c>
+      <c r="F93">
+        <v>-0.002575183041581706</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04243417644202708</v>
+        <v>0.1311495397145929</v>
       </c>
       <c r="C94">
-        <v>-0.1500923208154421</v>
+        <v>0.02448645246242463</v>
       </c>
       <c r="D94">
-        <v>-0.01581824151207237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04224575817618036</v>
+      </c>
+      <c r="E94">
+        <v>0.05738892034971751</v>
+      </c>
+      <c r="F94">
+        <v>-0.03523318426050908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02691225423793099</v>
+        <v>0.1274406239056255</v>
       </c>
       <c r="C95">
-        <v>-0.1413329751955437</v>
+        <v>0.003490293891525172</v>
       </c>
       <c r="D95">
-        <v>0.02224788976325114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09160750038974602</v>
+      </c>
+      <c r="E95">
+        <v>0.04659289238283729</v>
+      </c>
+      <c r="F95">
+        <v>0.006768640572091525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9726119266890854</v>
+        <v>0.1045888761610721</v>
       </c>
       <c r="C96">
-        <v>-0.2139076223612286</v>
+        <v>-0.9876955210689859</v>
       </c>
       <c r="D96">
-        <v>-0.02859253871908593</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04796083846259386</v>
+      </c>
+      <c r="E96">
+        <v>0.0555475003022502</v>
+      </c>
+      <c r="F96">
+        <v>-0.04227322482349321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.004558600748937059</v>
+        <v>0.193153871848219</v>
       </c>
       <c r="C97">
-        <v>-0.150691179131585</v>
+        <v>-0.007695984995497285</v>
       </c>
       <c r="D97">
-        <v>-0.05373312021519528</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01814607952112264</v>
+      </c>
+      <c r="E97">
+        <v>0.01769911834296383</v>
+      </c>
+      <c r="F97">
+        <v>0.09224221292097338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02894822501918896</v>
+        <v>0.2041889381015426</v>
       </c>
       <c r="C98">
-        <v>-0.1992915352152886</v>
+        <v>0.006752587075918606</v>
       </c>
       <c r="D98">
-        <v>-0.01799137119972838</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01368886625851231</v>
+      </c>
+      <c r="E98">
+        <v>-0.08382501377028426</v>
+      </c>
+      <c r="F98">
+        <v>0.09382681098258663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.004771469759328364</v>
+        <v>0.05564751151722902</v>
       </c>
       <c r="C99">
-        <v>-0.06149854560989927</v>
+        <v>-0.005003729727731539</v>
       </c>
       <c r="D99">
-        <v>-0.01387690466839369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03987429530541581</v>
+      </c>
+      <c r="E99">
+        <v>0.02317052166386104</v>
+      </c>
+      <c r="F99">
+        <v>-0.00148503868731981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.003394428250640643</v>
+        <v>0.1251352130876919</v>
       </c>
       <c r="C100">
-        <v>-0.1679505774464446</v>
+        <v>-0.05490117828956031</v>
       </c>
       <c r="D100">
-        <v>0.7706433421443719</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3430715652613078</v>
+      </c>
+      <c r="E100">
+        <v>-0.889857203062102</v>
+      </c>
+      <c r="F100">
+        <v>0.1405935893494563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01299811338611888</v>
+        <v>0.02757613456519574</v>
       </c>
       <c r="C101">
-        <v>-0.02760887630530505</v>
+        <v>0.008101773581811829</v>
       </c>
       <c r="D101">
-        <v>-0.006031290118744499</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03171819567732101</v>
+      </c>
+      <c r="E101">
+        <v>0.01069961907585625</v>
+      </c>
+      <c r="F101">
+        <v>0.01170364811228981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
